--- a/mybi-backend/src/main/resources/网站数据.xlsx
+++ b/mybi-backend/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carriemint/Desktop/code/gitcode/myBIproject/mybi-backend/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F843D-7B4C-FE49-A42B-6D76403CD4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176EC8E8-D8CA-9E41-A740-9D56834531A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1080" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="2180" yWindow="960" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -501,6 +513,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mybi-backend/src/main/resources/网站数据.xlsx
+++ b/mybi-backend/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carriemint/Desktop/code/gitcode/myBIproject/mybi-backend/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176EC8E8-D8CA-9E41-A740-9D56834531A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EB4C19-5A9B-D649-8158-F221B8C76BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="960" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7号</t>
+    <t>4号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>30</v>
